--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G447"/>
+  <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11626,6 +11626,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>186292620000000</v>
+      </c>
+      <c r="D448" t="n">
+        <v>186292620000000</v>
+      </c>
+      <c r="E448" t="n">
+        <v>186292620000000</v>
+      </c>
+      <c r="F448" t="n">
+        <v>186292620000000</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>188783960000000</v>
+      </c>
+      <c r="D449" t="n">
+        <v>188783960000000</v>
+      </c>
+      <c r="E449" t="n">
+        <v>188783960000000</v>
+      </c>
+      <c r="F449" t="n">
+        <v>188783960000000</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>188931990000000</v>
+      </c>
+      <c r="D450" t="n">
+        <v>188931990000000</v>
+      </c>
+      <c r="E450" t="n">
+        <v>188931990000000</v>
+      </c>
+      <c r="F450" t="n">
+        <v>188931990000000</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11686,18 +11686,43 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>188931990000000</v>
+        <v>189044810000000</v>
       </c>
       <c r="D450" t="n">
-        <v>188931990000000</v>
+        <v>189044810000000</v>
       </c>
       <c r="E450" t="n">
-        <v>188931990000000</v>
+        <v>189044810000000</v>
       </c>
       <c r="F450" t="n">
-        <v>188931990000000</v>
+        <v>189044810000000</v>
       </c>
       <c r="G450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>190898150000000</v>
+      </c>
+      <c r="D451" t="n">
+        <v>190898150000000</v>
+      </c>
+      <c r="E451" t="n">
+        <v>190898150000000</v>
+      </c>
+      <c r="F451" t="n">
+        <v>190898150000000</v>
+      </c>
+      <c r="G451" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -11636,16 +11636,16 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>186292620000000</v>
+        <v>187269720000000</v>
       </c>
       <c r="D448" t="n">
-        <v>186292620000000</v>
+        <v>187269720000000</v>
       </c>
       <c r="E448" t="n">
-        <v>186292620000000</v>
+        <v>187269720000000</v>
       </c>
       <c r="F448" t="n">
-        <v>186292620000000</v>
+        <v>187269720000000</v>
       </c>
       <c r="G448" t="n">
         <v>0</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>188783960000000</v>
+        <v>189753310000000</v>
       </c>
       <c r="D449" t="n">
-        <v>188783960000000</v>
+        <v>189753310000000</v>
       </c>
       <c r="E449" t="n">
-        <v>188783960000000</v>
+        <v>189753310000000</v>
       </c>
       <c r="F449" t="n">
-        <v>188783960000000</v>
+        <v>189753310000000</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -11711,18 +11711,43 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>190898150000000</v>
+        <v>191132500000000</v>
       </c>
       <c r="D451" t="n">
-        <v>190898150000000</v>
+        <v>191132500000000</v>
       </c>
       <c r="E451" t="n">
-        <v>190898150000000</v>
+        <v>191132500000000</v>
       </c>
       <c r="F451" t="n">
-        <v>190898150000000</v>
+        <v>191132500000000</v>
       </c>
       <c r="G451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>191167460000000</v>
+      </c>
+      <c r="D452" t="n">
+        <v>191167460000000</v>
+      </c>
+      <c r="E452" t="n">
+        <v>191167460000000</v>
+      </c>
+      <c r="F452" t="n">
+        <v>191167460000000</v>
+      </c>
+      <c r="G452" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Chile_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11736,18 +11736,93 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>191167460000000</v>
+        <v>191083570000000</v>
       </c>
       <c r="D452" t="n">
-        <v>191167460000000</v>
+        <v>191083570000000</v>
       </c>
       <c r="E452" t="n">
-        <v>191167460000000</v>
+        <v>191083570000000</v>
       </c>
       <c r="F452" t="n">
-        <v>191167460000000</v>
+        <v>191083570000000</v>
       </c>
       <c r="G452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>190180250000000</v>
+      </c>
+      <c r="D453" t="n">
+        <v>190180250000000</v>
+      </c>
+      <c r="E453" t="n">
+        <v>190180250000000</v>
+      </c>
+      <c r="F453" t="n">
+        <v>190180250000000</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>192392890000000</v>
+      </c>
+      <c r="D454" t="n">
+        <v>192392890000000</v>
+      </c>
+      <c r="E454" t="n">
+        <v>192392890000000</v>
+      </c>
+      <c r="F454" t="n">
+        <v>192392890000000</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CLM2</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>192947920000000</v>
+      </c>
+      <c r="D455" t="n">
+        <v>192947920000000</v>
+      </c>
+      <c r="E455" t="n">
+        <v>192947920000000</v>
+      </c>
+      <c r="F455" t="n">
+        <v>192947920000000</v>
+      </c>
+      <c r="G455" t="n">
         <v>0</v>
       </c>
     </row>
